--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H2">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I2">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J2">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N2">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O2">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P2">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q2">
-        <v>33.94234999050311</v>
+        <v>42.542058079684</v>
       </c>
       <c r="R2">
-        <v>305.481149914528</v>
+        <v>382.878522717156</v>
       </c>
       <c r="S2">
-        <v>0.3544899428958072</v>
+        <v>0.7032534566531626</v>
       </c>
       <c r="T2">
-        <v>0.3893698772345659</v>
+        <v>0.7121577787245631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H3">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I3">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J3">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.379033</v>
       </c>
       <c r="O3">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P3">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q3">
-        <v>5.872139957490333</v>
+        <v>11.245706134244</v>
       </c>
       <c r="R3">
-        <v>52.849259617413</v>
+        <v>101.211355208196</v>
       </c>
       <c r="S3">
-        <v>0.06132794455273016</v>
+        <v>0.1859003082690425</v>
       </c>
       <c r="T3">
-        <v>0.06736228973515186</v>
+        <v>0.1882541057546289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H4">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I4">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J4">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N4">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O4">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P4">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q4">
-        <v>0.039075721993</v>
+        <v>0.05934253784533332</v>
       </c>
       <c r="R4">
-        <v>0.351681497937</v>
+        <v>0.5340828406079999</v>
       </c>
       <c r="S4">
-        <v>0.0004081022811262836</v>
+        <v>0.0009809785127962893</v>
       </c>
       <c r="T4">
-        <v>0.0004482573858181148</v>
+        <v>0.0009933992816391929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H5">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I5">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J5">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N5">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O5">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P5">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q5">
-        <v>1.965315817375166</v>
+        <v>1.00075915274</v>
       </c>
       <c r="R5">
-        <v>11.791894904251</v>
+        <v>6.004554916439999</v>
       </c>
       <c r="S5">
-        <v>0.02052552908294441</v>
+        <v>0.0165433306523031</v>
       </c>
       <c r="T5">
-        <v>0.01503008834592827</v>
+        <v>0.01116853058556256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7602039999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.280612</v>
+      </c>
+      <c r="I6">
+        <v>0.9081302434927829</v>
+      </c>
+      <c r="J6">
+        <v>0.9140443705567521</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3969536666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.190861</v>
-      </c>
-      <c r="I6">
-        <v>0.4375843187631859</v>
-      </c>
-      <c r="J6">
-        <v>0.4731252557598102</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N6">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O6">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P6">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q6">
-        <v>0.07974044951366667</v>
+        <v>0.08784638682533331</v>
       </c>
       <c r="R6">
-        <v>0.717664045623</v>
+        <v>0.7906174814279999</v>
       </c>
       <c r="S6">
-        <v>0.0008327999505778092</v>
+        <v>0.001452169405478499</v>
       </c>
       <c r="T6">
-        <v>0.0009147430583460693</v>
+        <v>0.001470556210358425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H7">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I7">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J7">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N7">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O7">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P7">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q7">
-        <v>17.480512184336</v>
+        <v>0.9093163173790001</v>
       </c>
       <c r="R7">
-        <v>104.883073106016</v>
+        <v>5.455897904274</v>
       </c>
       <c r="S7">
-        <v>0.1825644296210641</v>
+        <v>0.01503170914275279</v>
       </c>
       <c r="T7">
-        <v>0.1336852022152588</v>
+        <v>0.01014802320297835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H8">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I8">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J8">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>44.379033</v>
       </c>
       <c r="O8">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P8">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q8">
-        <v>3.0241870142685</v>
+        <v>0.240371635739</v>
       </c>
       <c r="R8">
-        <v>18.145122085611</v>
+        <v>1.442229814434</v>
       </c>
       <c r="S8">
-        <v>0.03158425631384493</v>
+        <v>0.003973530932570299</v>
       </c>
       <c r="T8">
-        <v>0.02312798665599288</v>
+        <v>0.002682561491746046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H9">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I9">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J9">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N9">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O9">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P9">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q9">
-        <v>0.0201242293065</v>
+        <v>0.001268418605333333</v>
       </c>
       <c r="R9">
-        <v>0.120745375839</v>
+        <v>0.007610511632</v>
       </c>
       <c r="S9">
-        <v>0.0002101751027751268</v>
+        <v>2.096795051647572E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001539034803955249</v>
+        <v>1.415562570692011E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H10">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I10">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J10">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N10">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O10">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P10">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q10">
-        <v>1.01214933854925</v>
+        <v>0.021390752315</v>
       </c>
       <c r="R10">
-        <v>4.048597354197</v>
+        <v>0.08556300926</v>
       </c>
       <c r="S10">
-        <v>0.01057076959387732</v>
+        <v>0.0003536058476004771</v>
       </c>
       <c r="T10">
-        <v>0.005160389946210897</v>
+        <v>0.0001591480299891485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.016249</v>
+      </c>
+      <c r="H11">
+        <v>0.032498</v>
+      </c>
+      <c r="I11">
+        <v>0.01941085330584189</v>
+      </c>
+      <c r="J11">
+        <v>0.01302484331151171</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2044335</v>
-      </c>
-      <c r="H11">
-        <v>0.408867</v>
-      </c>
-      <c r="I11">
-        <v>0.2253585275608331</v>
-      </c>
-      <c r="J11">
-        <v>0.1624415477093853</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N11">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O11">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P11">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q11">
-        <v>0.0410668059135</v>
+        <v>0.001877674860333333</v>
       </c>
       <c r="R11">
-        <v>0.246400835481</v>
+        <v>0.011266049162</v>
       </c>
       <c r="S11">
-        <v>0.0004288969292716326</v>
+        <v>3.103943240185546E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003140654115272751</v>
+        <v>2.095496109124572E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H12">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I12">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J12">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>85.50708266666668</v>
+        <v>55.96137100000001</v>
       </c>
       <c r="N12">
-        <v>256.521248</v>
+        <v>167.884113</v>
       </c>
       <c r="O12">
-        <v>0.8101065959076379</v>
+        <v>0.7743971326715885</v>
       </c>
       <c r="P12">
-        <v>0.8229741965671684</v>
+        <v>0.7791282367296697</v>
       </c>
       <c r="Q12">
-        <v>26.14470260088178</v>
+        <v>3.394392919376001</v>
       </c>
       <c r="R12">
-        <v>235.302323407936</v>
+        <v>30.54953627438401</v>
       </c>
       <c r="S12">
-        <v>0.2730522233907667</v>
+        <v>0.05611196687567316</v>
       </c>
       <c r="T12">
-        <v>0.2999191171173437</v>
+        <v>0.05682243480212826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H13">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I13">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J13">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.379033</v>
       </c>
       <c r="O13">
-        <v>0.1401511478429371</v>
+        <v>0.2047066592056736</v>
       </c>
       <c r="P13">
-        <v>0.1423772857506246</v>
+        <v>0.20595729465514</v>
       </c>
       <c r="Q13">
-        <v>4.523120905367333</v>
+        <v>0.8972848752160001</v>
       </c>
       <c r="R13">
-        <v>40.708088148306</v>
+        <v>8.075563876944001</v>
       </c>
       <c r="S13">
-        <v>0.04723894697636199</v>
+        <v>0.01483282000406081</v>
       </c>
       <c r="T13">
-        <v>0.05188700935947988</v>
+        <v>0.01502062740876499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H14">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I14">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J14">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.09843900000000001</v>
+        <v>0.07806133333333333</v>
       </c>
       <c r="N14">
-        <v>0.2953170000000001</v>
+        <v>0.234184</v>
       </c>
       <c r="O14">
-        <v>0.0009326254704002372</v>
+        <v>0.001080217865031477</v>
       </c>
       <c r="P14">
-        <v>0.0009474391408216855</v>
+        <v>0.001086817351146865</v>
       </c>
       <c r="Q14">
-        <v>0.030098774266</v>
+        <v>0.004734888234666667</v>
       </c>
       <c r="R14">
-        <v>0.270888968394</v>
+        <v>0.042613994112</v>
       </c>
       <c r="S14">
-        <v>0.000314348086498827</v>
+        <v>7.8271401718712E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003452782746080457</v>
+        <v>7.926244380075204E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H15">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I15">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J15">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.950995499999999</v>
+        <v>1.316435</v>
       </c>
       <c r="N15">
-        <v>9.901990999999999</v>
+        <v>2.63287</v>
       </c>
       <c r="O15">
-        <v>0.04690645483128594</v>
+        <v>0.01821691411649872</v>
       </c>
       <c r="P15">
-        <v>0.03176767285819665</v>
+        <v>0.01221880572248337</v>
       </c>
       <c r="Q15">
-        <v>1.513819684743666</v>
+        <v>0.07984968136000001</v>
       </c>
       <c r="R15">
-        <v>9.082918108461998</v>
+        <v>0.47909808816</v>
       </c>
       <c r="S15">
-        <v>0.01581015615446421</v>
+        <v>0.001319977616595147</v>
       </c>
       <c r="T15">
-        <v>0.01157719456605748</v>
+        <v>0.0008911271069316692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H16">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I16">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J16">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.200881</v>
+        <v>0.1155563333333333</v>
       </c>
       <c r="N16">
-        <v>0.602643</v>
+        <v>0.346669</v>
       </c>
       <c r="O16">
-        <v>0.001903175947738905</v>
+        <v>0.001599076141207756</v>
       </c>
       <c r="P16">
-        <v>0.001933405683188584</v>
+        <v>0.001608845541560194</v>
       </c>
       <c r="Q16">
-        <v>0.06142150848066666</v>
+        <v>0.007009184954666668</v>
       </c>
       <c r="R16">
-        <v>0.552793576326</v>
+        <v>0.063082664592</v>
       </c>
       <c r="S16">
-        <v>0.0006414790678894631</v>
+        <v>0.0001158673033274014</v>
       </c>
       <c r="T16">
-        <v>0.0007045972133152391</v>
+        <v>0.0001173343701105238</v>
       </c>
     </row>
   </sheetData>
